--- a/东奥会计专业/赔付明细.xlsx
+++ b/东奥会计专业/赔付明细.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
-  <si>
-    <t>赔付明细</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>序号</t>
   </si>
@@ -241,16 +238,49 @@
     <t>JT5022710392210</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2月赔付明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月赔付明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月赔付明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T5022409893496</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>JT5025417859549</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,11 +1392,105 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>330619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17421227" y="990599"/>
+          <a:ext cx="257174" cy="282995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>378872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17430750" y="1400176"/>
+          <a:ext cx="266700" cy="312196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1440,7 +1564,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1475,7 +1598,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1651,14 +1773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1671,58 +1793,85 @@
     <col min="9" max="9" width="17" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" ht="43.5" customHeight="1">
       <c r="B1" s="10" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:16" ht="30.75" customHeight="1">
       <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>5</v>
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:16" ht="30.75" customHeight="1">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -1730,7 +1879,7 @@
         <v>44145</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7">
         <v>3.75</v>
@@ -1743,14 +1892,27 @@
         <v>44197</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="7">
         <v>5.96</v>
       </c>
       <c r="K3" s="5"/>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>44230</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="7">
+        <v>25.79</v>
+      </c>
+      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:16" ht="30.75" customHeight="1">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -1758,7 +1920,7 @@
         <v>44148</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7">
         <v>4.74</v>
@@ -1771,14 +1933,27 @@
         <v>44200</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="7">
         <v>14.8</v>
       </c>
       <c r="K4" s="5"/>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>44236</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5.47</v>
+      </c>
+      <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:16" ht="30.75" customHeight="1">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -1786,7 +1961,7 @@
         <v>44150</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="7">
         <v>2.98</v>
@@ -1799,14 +1974,21 @@
         <v>44201</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="7">
         <v>2.41</v>
       </c>
       <c r="K5" s="5"/>
+      <c r="L5" s="5">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:16" ht="30.75" customHeight="1">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -1814,7 +1996,7 @@
         <v>44170</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7">
         <v>11.2</v>
@@ -1827,14 +2009,21 @@
         <v>44203</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="7">
         <v>1.76</v>
       </c>
       <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>4</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:16" ht="30.75" customHeight="1">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -1842,7 +2031,7 @@
         <v>44185</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7">
         <v>7.71</v>
@@ -1855,14 +2044,21 @@
         <v>44204</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="7">
         <v>3.8</v>
       </c>
       <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:16" ht="30.75" customHeight="1">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -1870,7 +2066,7 @@
         <v>44189</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7">
         <v>4.78</v>
@@ -1883,14 +2079,21 @@
         <v>44205</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="7">
         <v>9.9</v>
       </c>
       <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>6</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:16" ht="30.75" customHeight="1">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -1898,7 +2101,7 @@
         <v>44190</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7">
         <v>3.42</v>
@@ -1911,14 +2114,21 @@
         <v>44205</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="7">
         <v>7.04</v>
       </c>
       <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>7</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:16" ht="30.75" customHeight="1">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -1926,7 +2136,7 @@
         <v>44191</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7">
         <v>84.15</v>
@@ -1939,14 +2149,21 @@
         <v>44207</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="7">
         <v>8.8000000000000007</v>
       </c>
       <c r="K10" s="5"/>
+      <c r="L10" s="5">
+        <v>8</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:16" ht="30.75" customHeight="1">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -1954,7 +2171,7 @@
         <v>44195</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7">
         <v>21.9</v>
@@ -1967,18 +2184,25 @@
         <v>44215</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="7">
         <v>6.97</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="L11" s="5">
+        <v>9</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:16" ht="30.75" customHeight="1">
       <c r="B12" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -1994,14 +2218,21 @@
         <v>44216</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="7">
         <v>8.9</v>
       </c>
       <c r="K12" s="5"/>
+      <c r="L12" s="5">
+        <v>10</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:16" ht="30.75" customHeight="1">
       <c r="G13" s="5">
         <v>11</v>
       </c>
@@ -2009,14 +2240,21 @@
         <v>44220</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="7">
         <v>5.8</v>
       </c>
       <c r="K13" s="5"/>
+      <c r="L13" s="5">
+        <v>11</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:16" ht="30.75" customHeight="1">
       <c r="G14" s="5">
         <v>12</v>
       </c>
@@ -2024,14 +2262,21 @@
         <v>44220</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="7">
         <v>3.8</v>
       </c>
       <c r="K14" s="5"/>
+      <c r="L14" s="5">
+        <v>12</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:16" ht="30.75" customHeight="1">
       <c r="G15" s="5">
         <v>13</v>
       </c>
@@ -2039,14 +2284,21 @@
         <v>44223</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="7">
         <v>6.6</v>
       </c>
       <c r="K15" s="5"/>
+      <c r="L15" s="5">
+        <v>13</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:16" ht="30.75" customHeight="1">
       <c r="G16" s="5">
         <v>14</v>
       </c>
@@ -2054,14 +2306,21 @@
         <v>44223</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" s="7">
         <v>3.87</v>
       </c>
       <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>14</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16" ht="30.75" customHeight="1">
       <c r="G17" s="5">
         <v>15</v>
       </c>
@@ -2069,23 +2328,35 @@
         <v>44223</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" s="7">
         <v>5.68</v>
       </c>
       <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>15</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16" ht="30.75" customHeight="1">
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
       <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16" ht="30.75" customHeight="1">
       <c r="G19" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
@@ -2094,23 +2365,33 @@
         <v>96.09</v>
       </c>
       <c r="K19" s="5"/>
+      <c r="L19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="9">
+        <f>SUM(O3:O18)</f>
+        <v>31.259999999999998</v>
+      </c>
+      <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="21" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="22" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="23" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="24" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="25" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="26" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="27" spans="2:16" ht="30.75" customHeight="1"/>
+    <row r="28" spans="2:16" ht="30.75" customHeight="1">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16" ht="30.75" customHeight="1">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2118,11 +2399,13 @@
       <c r="F29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L19:N19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,12 +2415,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,12 +2428,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
